--- a/biology/Zoologie/Coccosteus/Coccosteus.xlsx
+++ b/biology/Zoologie/Coccosteus/Coccosteus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coccosteus est un genre éteint de poissons placodermes qui vivaient au Dévonien moyen.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fossiles de ces poissons carnivores d'eau douce qui mesuraient, adultes, jusqu'à une quarantaine de centimètres ont été découverts en Europe et en Amérique du Nord.
 L'espèce type est Coccosteus cuspidatus.
